--- a/data/trans_bre/P19C05-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.042999091679632</v>
+        <v>-5.859078873238026</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.045519174345817</v>
+        <v>-8.360108527182735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.109967421878315</v>
+        <v>-2.518315219858957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.258099185192185</v>
+        <v>-4.169435209870572</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3837835636660105</v>
+        <v>-0.3803139674050022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.632602076551247</v>
+        <v>-0.6110402834384967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2458255395607554</v>
+        <v>-0.3004097621519559</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4188756893653564</v>
+        <v>-0.4092512039024422</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.526539864015831</v>
+        <v>5.135162132696824</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.023648198747297</v>
+        <v>0.9083004541904891</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.714084702193904</v>
+        <v>6.212319834655209</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.427104397583892</v>
+        <v>1.521249601478878</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4017130990328025</v>
+        <v>0.4477613705047791</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1251487967731534</v>
+        <v>0.1111487456468992</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.290081861110642</v>
+        <v>1.193992824611856</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2106197452672784</v>
+        <v>0.2221294767914115</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.750887300986645</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4.517787296052621</v>
+        <v>-4.517787296052618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3988229461470481</v>
@@ -749,7 +749,7 @@
         <v>-0.3610112049518135</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3941261376379584</v>
+        <v>-0.3941261376379582</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.22863908245802</v>
+        <v>-10.47407587663402</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-13.00294268927008</v>
+        <v>-13.0009215328409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.52001198454758</v>
+        <v>-8.795210753202042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.964066248819929</v>
+        <v>-8.126413430262165</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6537247671447644</v>
+        <v>-0.6486672899077283</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6863404028545697</v>
+        <v>-0.6875492880260952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6430982509103959</v>
+        <v>-0.6367844549263997</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5952585477939754</v>
+        <v>-0.5867096274060616</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.4147927661746682</v>
+        <v>0.1226343354911175</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-3.019297921215621</v>
+        <v>-2.693931444358817</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6349744929001696</v>
+        <v>0.8662973082958729</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.149882391293859</v>
+        <v>-1.121172495876066</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.02926573934169581</v>
+        <v>0.0355671629282618</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2203996506778774</v>
+        <v>-0.1912053234708485</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1172160414148087</v>
+        <v>0.124815040946548</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1172440482119889</v>
+        <v>-0.103126540742291</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.4383039396087501</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.962587662001672</v>
+        <v>3.962587662001675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2355400082540596</v>
@@ -849,7 +849,7 @@
         <v>0.02821104896565443</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3287831624190001</v>
+        <v>0.3287831624190004</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.302309235985559</v>
+        <v>-8.158304704754464</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.62686796716084</v>
+        <v>1.561521591931465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.704507112181254</v>
+        <v>-6.749710811907805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9524943809356207</v>
+        <v>-1.264174604247908</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.598061064454951</v>
+        <v>-0.573813918665704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08929205646564556</v>
+        <v>0.08396067878469529</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3876596727652095</v>
+        <v>-0.4066767180052717</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.07649646544523257</v>
+        <v>-0.09399067063497707</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.214567600697787</v>
+        <v>3.81770405175031</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.67663785912795</v>
+        <v>14.58217754117835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.853289862030863</v>
+        <v>8.390710161929343</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.330717112363347</v>
+        <v>9.372474499198159</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3113713924785499</v>
+        <v>0.386278953218538</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.072651011291832</v>
+        <v>1.062564553251738</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6584373947712099</v>
+        <v>0.6355158911369584</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8781647613948795</v>
+        <v>0.9435065089611657</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.72349488943407</v>
+        <v>-7.893276485313229</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.636147549542779</v>
+        <v>-6.661032786084818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.471051025914822</v>
+        <v>-7.431533596941583</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.277591338341209</v>
+        <v>-6.244688634601555</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3992366443320572</v>
+        <v>-0.3983209871302895</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3648676141070241</v>
+        <v>-0.3657770936897771</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5361941610042831</v>
+        <v>-0.5458688951370761</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4310768046810043</v>
+        <v>-0.4312766954919714</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.2990219802415259</v>
+        <v>-0.5181962511270619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6406923980488322</v>
+        <v>0.902577777914181</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.171390561892577</v>
+        <v>-1.262072511463621</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.294055175404818</v>
+        <v>-1.257028066732514</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.02844833924249134</v>
+        <v>-0.02929607757472063</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05771085567823428</v>
+        <v>0.05370321831111351</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.08393957807196266</v>
+        <v>-0.1115558187643816</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1014019265327389</v>
+        <v>-0.1103643241183265</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.3926589490912846</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8338487736566985</v>
+        <v>0.8338487736566983</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7849789081285972</v>
+        <v>-0.687699771103169</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2931386952995771</v>
+        <v>0.08880675867114693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2873964946744076</v>
+        <v>-0.6366573509681381</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.836040589658154</v>
+        <v>3.72489878218573</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.06633403691490515</v>
+        <v>-0.06669412892579175</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01169347625248442</v>
+        <v>0.01395171588698046</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.03005863749832811</v>
+        <v>-0.05796371222036393</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3970475756911455</v>
+        <v>0.3619827971155117</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.492859894082349</v>
+        <v>10.40321088509965</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.73360786115163</v>
+        <v>10.80768618822208</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.225438741336575</v>
+        <v>7.960163738631991</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.539066225156583</v>
+        <v>9.38825679295678</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.138399999994132</v>
+        <v>1.252403920604918</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6841167335168881</v>
+        <v>0.702239072686328</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.038777489282813</v>
+        <v>0.9746405307843455</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.529538212285627</v>
+        <v>1.468865603412515</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>2.774962122583704</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5.667056379595641</v>
+        <v>5.667056379595642</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>17.84845687187034</v>
+        <v>18.16138287126027</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>14.70941085905724</v>
+        <v>14.6704425166614</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.142096659425057</v>
+        <v>7.042009520267428</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9.639793435515355</v>
+        <v>9.857186985147893</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>4.79075649201335</v>
+        <v>5.160546633610056</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.112184086499597</v>
+        <v>2.109535728858554</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.003861914114051</v>
+        <v>0.9123851172905767</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.141400243376206</v>
+        <v>1.403574642274769</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.24068698823524</v>
+        <v>23.86106942220519</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.11069909097621</v>
+        <v>22.59669605844025</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.95055523069051</v>
+        <v>14.68412045869774</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.29370934741798</v>
+        <v>17.060048370888</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>54.55752883259198</v>
+        <v>53.75897307509896</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>10.45941291940809</v>
+        <v>10.6576933507898</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>7.210240324308911</v>
+        <v>6.440040999135649</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>25.21308622860293</v>
+        <v>20.52559341107737</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>0.8948853153513361</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.64656630626355</v>
+        <v>1.646566306263551</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1876547583801689</v>
@@ -1249,7 +1249,7 @@
         <v>0.08376250378598339</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1581329549432732</v>
+        <v>0.1581329549432734</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5850169569131682</v>
+        <v>0.4441968299983994</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.231154263471032</v>
+        <v>1.08792898513864</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9121260641000859</v>
+        <v>-0.7713918968573936</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2470529002282245</v>
+        <v>0.3216312686078557</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.04021269298997011</v>
+        <v>0.02874027247016226</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07739732762396836</v>
+        <v>0.07287993755410591</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.07718792379069409</v>
+        <v>-0.06955459599178554</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.02162022098704608</v>
+        <v>0.02520306994334029</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.535769087897787</v>
+        <v>4.510207557226082</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.275804058010074</v>
+        <v>5.103277455799728</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.614508371132161</v>
+        <v>2.600594849910853</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.007654581208226</v>
+        <v>3.062849617068122</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3615364229123471</v>
+        <v>0.3525898359752252</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3778729523777041</v>
+        <v>0.3766162747786378</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.261980215568985</v>
+        <v>0.2659906542838219</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.314711025470537</v>
+        <v>0.3192734095210798</v>
       </c>
     </row>
     <row r="25">
